--- a/Data/Bus stops per 100,000 people.xlsx
+++ b/Data/Bus stops per 100,000 people.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lin\Documents\GitHub\mdm_3_phace_C\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221B91E9-E468-42B9-A29B-6C75465C88BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -828,33 +837,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -862,88 +875,387 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.5"/>
-    <col customWidth="1" min="2" max="2" width="20.13"/>
-    <col customWidth="1" min="3" max="7" width="9.5"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" customHeight="1">
+    <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,9 +1278,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="12.0" customHeight="1">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -980,18 +1292,18 @@
         <v>9</v>
       </c>
       <c r="E2" s="6">
-        <v>1822.0</v>
+        <v>1822</v>
       </c>
       <c r="F2" s="7">
         <v>118.8</v>
       </c>
       <c r="G2" s="8">
-        <v>1533.67003367003</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1533.6700336700301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>10</v>
@@ -1003,18 +1315,18 @@
         <v>12</v>
       </c>
       <c r="E3" s="6">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="F3" s="7">
         <v>26.2</v>
       </c>
       <c r="G3" s="8">
-        <v>1503.81679389313</v>
-      </c>
-    </row>
-    <row r="4" ht="12.0" customHeight="1">
+        <v>1503.8167938931299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -1026,18 +1338,18 @@
         <v>14</v>
       </c>
       <c r="E4" s="6">
-        <v>1344.0</v>
+        <v>1344</v>
       </c>
       <c r="F4" s="7">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="G4" s="8">
-        <v>1493.33333333333</v>
-      </c>
-    </row>
-    <row r="5" ht="12.0" customHeight="1">
+        <v>1493.3333333333301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
@@ -1049,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="6">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="F5" s="7">
         <v>148.5</v>
@@ -1058,9 +1370,9 @@
         <v>1356.22895622896</v>
       </c>
     </row>
-    <row r="6" ht="12.0" customHeight="1">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>17</v>
@@ -1072,18 +1384,18 @@
         <v>18</v>
       </c>
       <c r="E6" s="6">
-        <v>1425.0</v>
+        <v>1425</v>
       </c>
       <c r="F6" s="7">
         <v>110.3</v>
       </c>
       <c r="G6" s="8">
-        <v>1291.93109700816</v>
-      </c>
-    </row>
-    <row r="7" ht="12.0" customHeight="1">
+        <v>1291.9310970081599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -1095,18 +1407,18 @@
         <v>20</v>
       </c>
       <c r="E7" s="6">
-        <v>1868.0</v>
+        <v>1868</v>
       </c>
       <c r="F7" s="7">
         <v>145.9</v>
       </c>
       <c r="G7" s="8">
-        <v>1280.32899246059</v>
-      </c>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
+        <v>1280.3289924605899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -1118,18 +1430,18 @@
         <v>22</v>
       </c>
       <c r="E8" s="6">
-        <v>2273.0</v>
+        <v>2273</v>
       </c>
       <c r="F8" s="7">
         <v>180.8</v>
       </c>
       <c r="G8" s="8">
-        <v>1257.19026548673</v>
-      </c>
-    </row>
-    <row r="9" ht="12.0" customHeight="1">
+        <v>1257.1902654867299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
@@ -1141,18 +1453,18 @@
         <v>25</v>
       </c>
       <c r="E9" s="6">
-        <v>3909.0</v>
+        <v>3909</v>
       </c>
       <c r="F9" s="7">
-        <v>311.1</v>
+        <v>311.10000000000002</v>
       </c>
       <c r="G9" s="8">
         <v>1256.50916104147</v>
       </c>
     </row>
-    <row r="10" ht="12.0" customHeight="1">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>26</v>
@@ -1164,18 +1476,18 @@
         <v>27</v>
       </c>
       <c r="E10" s="6">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="F10" s="7">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G10" s="8">
-        <v>1126.13636363636</v>
-      </c>
-    </row>
-    <row r="11" ht="12.0" customHeight="1">
+        <v>1126.1363636363601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
@@ -1187,7 +1499,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="6">
-        <v>2200.0</v>
+        <v>2200</v>
       </c>
       <c r="F11" s="7">
         <v>197.8</v>
@@ -1196,9 +1508,9 @@
         <v>1112.23458038423</v>
       </c>
     </row>
-    <row r="12" ht="12.0" customHeight="1">
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>31</v>
@@ -1210,18 +1522,18 @@
         <v>32</v>
       </c>
       <c r="E12" s="6">
-        <v>764.0</v>
+        <v>764</v>
       </c>
       <c r="F12" s="7">
         <v>68.8</v>
       </c>
       <c r="G12" s="8">
-        <v>1110.46511627907</v>
-      </c>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
+        <v>1110.4651162790699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>33</v>
@@ -1233,18 +1545,18 @@
         <v>35</v>
       </c>
       <c r="E13" s="6">
-        <v>1543.0</v>
+        <v>1543</v>
       </c>
       <c r="F13" s="7">
-        <v>140.2</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="G13" s="8">
         <v>1100.57061340942</v>
       </c>
     </row>
-    <row r="14" ht="12.0" customHeight="1">
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>36</v>
@@ -1256,18 +1568,18 @@
         <v>37</v>
       </c>
       <c r="E14" s="6">
-        <v>1239.0</v>
+        <v>1239</v>
       </c>
       <c r="F14" s="7">
         <v>112.7</v>
       </c>
       <c r="G14" s="8">
-        <v>1099.37888198758</v>
-      </c>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
+        <v>1099.3788819875799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>38</v>
@@ -1279,7 +1591,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="6">
-        <v>2358.0</v>
+        <v>2358</v>
       </c>
       <c r="F15" s="7">
         <v>220.5</v>
@@ -1288,9 +1600,9 @@
         <v>1069.38775510204</v>
       </c>
     </row>
-    <row r="16" ht="12.0" customHeight="1">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>40</v>
@@ -1302,18 +1614,18 @@
         <v>41</v>
       </c>
       <c r="E16" s="6">
-        <v>801.0</v>
+        <v>801</v>
       </c>
       <c r="F16" s="7">
-        <v>76.4</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="G16" s="8">
-        <v>1048.42931937173</v>
-      </c>
-    </row>
-    <row r="17" ht="12.0" customHeight="1">
+        <v>1048.4293193717299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>42</v>
@@ -1325,18 +1637,18 @@
         <v>44</v>
       </c>
       <c r="E17" s="6">
-        <v>3052.0</v>
+        <v>3052</v>
       </c>
       <c r="F17" s="7">
         <v>291.8</v>
       </c>
       <c r="G17" s="8">
-        <v>1045.92186429061</v>
-      </c>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
+        <v>1045.9218642906101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>45</v>
@@ -1345,7 +1657,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="6">
-        <v>6140.0</v>
+        <v>6140</v>
       </c>
       <c r="F18" s="7">
         <v>589.1</v>
@@ -1354,9 +1666,9 @@
         <v>1042.26786623663</v>
       </c>
     </row>
-    <row r="19" ht="12.0" customHeight="1">
+    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>47</v>
@@ -1368,18 +1680,18 @@
         <v>48</v>
       </c>
       <c r="E19" s="6">
-        <v>3764.0</v>
+        <v>3764</v>
       </c>
       <c r="F19" s="7">
         <v>363.5</v>
       </c>
       <c r="G19" s="8">
-        <v>1035.48830811554</v>
-      </c>
-    </row>
-    <row r="20" ht="12.0" customHeight="1">
+        <v>1035.4883081155399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>49</v>
@@ -1391,7 +1703,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="6">
-        <v>1852.0</v>
+        <v>1852</v>
       </c>
       <c r="F20" s="7">
         <v>179.1</v>
@@ -1400,9 +1712,9 @@
         <v>1034.05918481295</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>51</v>
@@ -1414,7 +1726,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="6">
-        <v>5232.0</v>
+        <v>5232</v>
       </c>
       <c r="F21" s="10">
         <v>506.4</v>
@@ -1423,9 +1735,9 @@
         <v>1033.17535545024</v>
       </c>
     </row>
-    <row r="22" ht="12.0" customHeight="1">
+    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
@@ -1437,18 +1749,18 @@
         <v>54</v>
       </c>
       <c r="E22" s="6">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="F22" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G22" s="8">
-        <v>1030.0</v>
-      </c>
-    </row>
-    <row r="23" ht="12.0" customHeight="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>55</v>
@@ -1457,18 +1769,18 @@
         <v>56</v>
       </c>
       <c r="E23" s="6">
-        <v>6142.0</v>
+        <v>6142</v>
       </c>
       <c r="F23" s="7">
-        <v>597.7</v>
+        <v>597.70000000000005</v>
       </c>
       <c r="G23" s="8">
         <v>1027.60582231889</v>
       </c>
     </row>
-    <row r="24" ht="12.0" customHeight="1">
+    <row r="24" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>57</v>
@@ -1480,18 +1792,18 @@
         <v>58</v>
       </c>
       <c r="E24" s="6">
-        <v>1537.0</v>
+        <v>1537</v>
       </c>
       <c r="F24" s="7">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="G24" s="8">
-        <v>1004.57516339869</v>
-      </c>
-    </row>
-    <row r="25" ht="12.0" customHeight="1">
+        <v>1004.5751633986901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>59</v>
@@ -1500,7 +1812,7 @@
         <v>60</v>
       </c>
       <c r="E25" s="6">
-        <v>7614.0</v>
+        <v>7614</v>
       </c>
       <c r="F25" s="7">
         <v>760.2</v>
@@ -1509,9 +1821,9 @@
         <v>1001.57853196527</v>
       </c>
     </row>
-    <row r="26" ht="12.0" customHeight="1">
+    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>61</v>
@@ -1523,18 +1835,18 @@
         <v>62</v>
       </c>
       <c r="E26" s="6">
-        <v>5231.0</v>
+        <v>5231</v>
       </c>
       <c r="F26" s="7">
         <v>531.1</v>
       </c>
       <c r="G26" s="8">
-        <v>984.936923366598</v>
-      </c>
-    </row>
-    <row r="27" ht="12.0" customHeight="1">
+        <v>984.93692336659797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>63</v>
@@ -1546,18 +1858,18 @@
         <v>64</v>
       </c>
       <c r="E27" s="6">
-        <v>543.0</v>
+        <v>543</v>
       </c>
       <c r="F27" s="7">
         <v>55.7</v>
       </c>
       <c r="G27" s="8">
-        <v>974.865350089766</v>
-      </c>
-    </row>
-    <row r="28" ht="12.0" customHeight="1">
+        <v>974.86535008976603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>65</v>
@@ -1566,18 +1878,18 @@
         <v>60</v>
       </c>
       <c r="E28" s="6">
-        <v>6764.0</v>
+        <v>6764</v>
       </c>
       <c r="F28" s="7">
         <v>697.9</v>
       </c>
       <c r="G28" s="8">
-        <v>969.193294168219</v>
-      </c>
-    </row>
-    <row r="29" ht="12.0" customHeight="1">
+        <v>969.19329416821904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>66</v>
@@ -1589,7 +1901,7 @@
         <v>67</v>
       </c>
       <c r="E29" s="6">
-        <v>4289.0</v>
+        <v>4289</v>
       </c>
       <c r="F29" s="7">
         <v>456.1</v>
@@ -1598,9 +1910,9 @@
         <v>940.363955272966</v>
       </c>
     </row>
-    <row r="30" ht="12.0" customHeight="1">
+    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>68</v>
@@ -1612,18 +1924,18 @@
         <v>69</v>
       </c>
       <c r="E30" s="6">
-        <v>1045.0</v>
+        <v>1045</v>
       </c>
       <c r="F30" s="7">
         <v>111.4</v>
       </c>
       <c r="G30" s="8">
-        <v>938.061041292639</v>
-      </c>
-    </row>
-    <row r="31" ht="12.0" customHeight="1">
+        <v>938.06104129263895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>70</v>
@@ -1635,18 +1947,18 @@
         <v>71</v>
       </c>
       <c r="E31" s="6">
-        <v>1231.0</v>
+        <v>1231</v>
       </c>
       <c r="F31" s="7">
-        <v>131.7</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="G31" s="8">
-        <v>934.700075930144</v>
-      </c>
-    </row>
-    <row r="32" ht="12.0" customHeight="1">
+        <v>934.70007593014395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>72</v>
@@ -1655,18 +1967,18 @@
         <v>73</v>
       </c>
       <c r="E32" s="6">
-        <v>6635.0</v>
+        <v>6635</v>
       </c>
       <c r="F32" s="7">
-        <v>714.0</v>
+        <v>714</v>
       </c>
       <c r="G32" s="8">
-        <v>929.271708683473</v>
-      </c>
-    </row>
-    <row r="33" ht="12.0" customHeight="1">
+        <v>929.27170868347298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>74</v>
@@ -1678,7 +1990,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="6">
-        <v>819.0</v>
+        <v>819</v>
       </c>
       <c r="F33" s="7">
         <v>88.7</v>
@@ -1687,9 +1999,9 @@
         <v>923.337091319053</v>
       </c>
     </row>
-    <row r="34" ht="12.0" customHeight="1">
+    <row r="34" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>76</v>
@@ -1701,18 +2013,18 @@
         <v>77</v>
       </c>
       <c r="E34" s="6">
-        <v>2210.0</v>
+        <v>2210</v>
       </c>
       <c r="F34" s="7">
         <v>243.5</v>
       </c>
       <c r="G34" s="8">
-        <v>907.597535934292</v>
-      </c>
-    </row>
-    <row r="35" ht="12.0" customHeight="1">
+        <v>907.59753593429195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>78</v>
@@ -1724,18 +2036,18 @@
         <v>79</v>
       </c>
       <c r="E35" s="6">
-        <v>727.0</v>
+        <v>727</v>
       </c>
       <c r="F35" s="7">
         <v>80.8</v>
       </c>
       <c r="G35" s="8">
-        <v>899.752475247525</v>
-      </c>
-    </row>
-    <row r="36" ht="12.0" customHeight="1">
+        <v>899.75247524752501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>80</v>
@@ -1744,18 +2056,18 @@
         <v>46</v>
       </c>
       <c r="E36" s="6">
-        <v>3566.0</v>
+        <v>3566</v>
       </c>
       <c r="F36" s="7">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="G36" s="8">
-        <v>882.673267326733</v>
-      </c>
-    </row>
-    <row r="37" ht="12.0" customHeight="1">
+        <v>882.67326732673303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>81</v>
@@ -1764,18 +2076,18 @@
         <v>24</v>
       </c>
       <c r="E37" s="6">
-        <v>4343.0</v>
+        <v>4343</v>
       </c>
       <c r="F37" s="7">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="G37" s="8">
-        <v>877.373737373737</v>
-      </c>
-    </row>
-    <row r="38" ht="12.0" customHeight="1">
+        <v>877.37373737373696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>82</v>
@@ -1787,18 +2099,18 @@
         <v>83</v>
       </c>
       <c r="E38" s="6">
-        <v>1314.0</v>
+        <v>1314</v>
       </c>
       <c r="F38" s="7">
         <v>152.5</v>
       </c>
       <c r="G38" s="8">
-        <v>861.639344262295</v>
-      </c>
-    </row>
-    <row r="39" ht="12.0" customHeight="1">
+        <v>861.63934426229503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>84</v>
@@ -1807,18 +2119,18 @@
         <v>60</v>
       </c>
       <c r="E39" s="6">
-        <v>6587.0</v>
+        <v>6587</v>
       </c>
       <c r="F39" s="7">
         <v>776.6</v>
       </c>
       <c r="G39" s="8">
-        <v>848.184393510172</v>
-      </c>
-    </row>
-    <row r="40" ht="12.0" customHeight="1">
+        <v>848.18439351017196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>85</v>
@@ -1827,18 +2139,18 @@
         <v>56</v>
       </c>
       <c r="E40" s="6">
-        <v>18770.0</v>
+        <v>18770</v>
       </c>
       <c r="F40" s="7">
-        <v>2226.7</v>
+        <v>2226.6999999999998</v>
       </c>
       <c r="G40" s="8">
-        <v>842.951452822563</v>
-      </c>
-    </row>
-    <row r="41" ht="12.0" customHeight="1">
+        <v>842.95145282256306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>86</v>
@@ -1850,18 +2162,18 @@
         <v>87</v>
       </c>
       <c r="E41" s="6">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="F41" s="7">
-        <v>133.2</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="G41" s="8">
         <v>840.840840840841</v>
       </c>
     </row>
-    <row r="42" ht="12.0" customHeight="1">
+    <row r="42" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>88</v>
@@ -1873,18 +2185,18 @@
         <v>89</v>
       </c>
       <c r="E42" s="6">
-        <v>1152.0</v>
+        <v>1152</v>
       </c>
       <c r="F42" s="7">
         <v>137.4</v>
       </c>
       <c r="G42" s="8">
-        <v>838.427947598253</v>
-      </c>
-    </row>
-    <row r="43" ht="12.0" customHeight="1">
+        <v>838.42794759825301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>90</v>
@@ -1896,18 +2208,18 @@
         <v>91</v>
       </c>
       <c r="E43" s="6">
-        <v>1089.0</v>
+        <v>1089</v>
       </c>
       <c r="F43" s="7">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="G43" s="8">
         <v>812.686567164179</v>
       </c>
     </row>
-    <row r="44" ht="12.0" customHeight="1">
+    <row r="44" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>92</v>
@@ -1919,18 +2231,18 @@
         <v>93</v>
       </c>
       <c r="E44" s="6">
-        <v>703.0</v>
+        <v>703</v>
       </c>
       <c r="F44" s="7">
         <v>87.7</v>
       </c>
       <c r="G44" s="8">
-        <v>801.596351197263</v>
-      </c>
-    </row>
-    <row r="45" ht="12.0" customHeight="1">
+        <v>801.59635119726295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>94</v>
@@ -1939,18 +2251,18 @@
         <v>46</v>
       </c>
       <c r="E45" s="6">
-        <v>5989.0</v>
+        <v>5989</v>
       </c>
       <c r="F45" s="7">
         <v>747.4</v>
       </c>
       <c r="G45" s="8">
-        <v>801.311212202301</v>
-      </c>
-    </row>
-    <row r="46" ht="12.0" customHeight="1">
+        <v>801.31121220230102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>95</v>
@@ -1959,18 +2271,18 @@
         <v>46</v>
       </c>
       <c r="E46" s="6">
-        <v>4169.0</v>
+        <v>4169</v>
       </c>
       <c r="F46" s="7">
         <v>523.5</v>
       </c>
       <c r="G46" s="8">
-        <v>796.370582617001</v>
-      </c>
-    </row>
-    <row r="47" ht="12.0" customHeight="1">
+        <v>796.37058261700099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>96</v>
@@ -1982,18 +2294,18 @@
         <v>97</v>
       </c>
       <c r="E47" s="6">
-        <v>2546.0</v>
+        <v>2546</v>
       </c>
       <c r="F47" s="7">
-        <v>326.6</v>
+        <v>326.60000000000002</v>
       </c>
       <c r="G47" s="8">
-        <v>779.546846295162</v>
-      </c>
-    </row>
-    <row r="48" ht="12.0" customHeight="1">
+        <v>779.54684629516203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>98</v>
@@ -2005,18 +2317,18 @@
         <v>99</v>
       </c>
       <c r="E48" s="6">
-        <v>934.0</v>
+        <v>934</v>
       </c>
       <c r="F48" s="7">
         <v>120.2</v>
       </c>
       <c r="G48" s="8">
-        <v>777.038269550749</v>
-      </c>
-    </row>
-    <row r="49" ht="12.0" customHeight="1">
+        <v>777.03826955074896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>100</v>
@@ -2028,18 +2340,18 @@
         <v>101</v>
       </c>
       <c r="E49" s="6">
-        <v>1156.0</v>
+        <v>1156</v>
       </c>
       <c r="F49" s="7">
         <v>149.9</v>
       </c>
       <c r="G49" s="8">
-        <v>771.180787191461</v>
-      </c>
-    </row>
-    <row r="50" ht="12.0" customHeight="1">
+        <v>771.18078719146104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>102</v>
@@ -2051,7 +2363,7 @@
         <v>103</v>
       </c>
       <c r="E50" s="6">
-        <v>699.0</v>
+        <v>699</v>
       </c>
       <c r="F50" s="7">
         <v>90.7</v>
@@ -2060,9 +2372,9 @@
         <v>770.672546857773</v>
       </c>
     </row>
-    <row r="51" ht="12.0" customHeight="1">
+    <row r="51" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>104</v>
@@ -2071,18 +2383,18 @@
         <v>56</v>
       </c>
       <c r="E51" s="6">
-        <v>10145.0</v>
+        <v>10145</v>
       </c>
       <c r="F51" s="7">
         <v>1317.3</v>
       </c>
       <c r="G51" s="8">
-        <v>770.135884005162</v>
-      </c>
-    </row>
-    <row r="52" ht="12.0" customHeight="1">
+        <v>770.13588400516198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>105</v>
@@ -2094,18 +2406,18 @@
         <v>106</v>
       </c>
       <c r="E52" s="6">
-        <v>1036.0</v>
+        <v>1036</v>
       </c>
       <c r="F52" s="7">
         <v>135.5</v>
       </c>
       <c r="G52" s="8">
-        <v>764.575645756458</v>
-      </c>
-    </row>
-    <row r="53" ht="12.0" customHeight="1">
+        <v>764.57564575645802</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>107</v>
@@ -2117,18 +2429,18 @@
         <v>108</v>
       </c>
       <c r="E53" s="6">
-        <v>893.0</v>
+        <v>893</v>
       </c>
       <c r="F53" s="7">
         <v>117.4</v>
       </c>
       <c r="G53" s="8">
-        <v>760.647359454855</v>
-      </c>
-    </row>
-    <row r="54" ht="12.0" customHeight="1">
+        <v>760.64735945485495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>109</v>
@@ -2140,18 +2452,18 @@
         <v>110</v>
       </c>
       <c r="E54" s="6">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="F54" s="7">
-        <v>68.6</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="G54" s="8">
-        <v>758.01749271137</v>
-      </c>
-    </row>
-    <row r="55" ht="12.0" customHeight="1">
+        <v>758.01749271136998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>111</v>
@@ -2160,18 +2472,18 @@
         <v>73</v>
       </c>
       <c r="E55" s="6">
-        <v>6468.0</v>
+        <v>6468</v>
       </c>
       <c r="F55" s="7">
         <v>853.4</v>
       </c>
       <c r="G55" s="8">
-        <v>757.909538317319</v>
-      </c>
-    </row>
-    <row r="56" ht="12.0" customHeight="1">
+        <v>757.90953831731895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>112</v>
@@ -2183,7 +2495,7 @@
         <v>113</v>
       </c>
       <c r="E56" s="6">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="F56" s="7">
         <v>22.2</v>
@@ -2192,9 +2504,9 @@
         <v>756.756756756757</v>
       </c>
     </row>
-    <row r="57" ht="12.0" customHeight="1">
+    <row r="57" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>114</v>
@@ -2206,18 +2518,18 @@
         <v>115</v>
       </c>
       <c r="E57" s="6">
-        <v>1748.0</v>
+        <v>1748</v>
       </c>
       <c r="F57" s="7">
         <v>231.3</v>
       </c>
       <c r="G57" s="8">
-        <v>755.728491137051</v>
-      </c>
-    </row>
-    <row r="58" ht="12.0" customHeight="1">
+        <v>755.72849113705104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>116</v>
@@ -2229,18 +2541,18 @@
         <v>117</v>
       </c>
       <c r="E58" s="6">
-        <v>722.0</v>
+        <v>722</v>
       </c>
       <c r="F58" s="7">
         <v>96.8</v>
       </c>
       <c r="G58" s="8">
-        <v>745.867768595041</v>
-      </c>
-    </row>
-    <row r="59" ht="12.0" customHeight="1">
+        <v>745.86776859504096</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>118</v>
@@ -2252,18 +2564,18 @@
         <v>119</v>
       </c>
       <c r="E59" s="6">
-        <v>826.0</v>
+        <v>826</v>
       </c>
       <c r="F59" s="7">
         <v>111.4</v>
       </c>
       <c r="G59" s="8">
-        <v>741.472172351885</v>
-      </c>
-    </row>
-    <row r="60" ht="12.0" customHeight="1">
+        <v>741.47217235188498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>120</v>
@@ -2272,7 +2584,7 @@
         <v>34</v>
       </c>
       <c r="E60" s="6">
-        <v>5822.0</v>
+        <v>5822</v>
       </c>
       <c r="F60" s="7">
         <v>792.9</v>
@@ -2281,9 +2593,9 @@
         <v>734.266616218943</v>
       </c>
     </row>
-    <row r="61" ht="12.0" customHeight="1">
+    <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>121</v>
@@ -2292,18 +2604,18 @@
         <v>29</v>
       </c>
       <c r="E61" s="6">
-        <v>19067.0</v>
+        <v>19067</v>
       </c>
       <c r="F61" s="7">
         <v>2600.9</v>
       </c>
       <c r="G61" s="8">
-        <v>733.09239109539</v>
-      </c>
-    </row>
-    <row r="62" ht="12.0" customHeight="1">
+        <v>733.09239109538998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>122</v>
@@ -2315,18 +2627,18 @@
         <v>123</v>
       </c>
       <c r="E62" s="6">
-        <v>911.0</v>
+        <v>911</v>
       </c>
       <c r="F62" s="7">
         <v>124.6</v>
       </c>
       <c r="G62" s="8">
-        <v>731.139646869984</v>
-      </c>
-    </row>
-    <row r="63" ht="12.0" customHeight="1">
+        <v>731.13964686998395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>124</v>
@@ -2338,18 +2650,18 @@
         <v>125</v>
       </c>
       <c r="E63" s="6">
-        <v>1285.0</v>
+        <v>1285</v>
       </c>
       <c r="F63" s="7">
         <v>177.7</v>
       </c>
       <c r="G63" s="8">
-        <v>723.128868880135</v>
-      </c>
-    </row>
-    <row r="64" ht="12.0" customHeight="1">
+        <v>723.12886888013497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>126</v>
@@ -2361,18 +2673,18 @@
         <v>127</v>
       </c>
       <c r="E64" s="6">
-        <v>719.0</v>
+        <v>719</v>
       </c>
       <c r="F64" s="7">
         <v>100.4</v>
       </c>
       <c r="G64" s="8">
-        <v>716.135458167331</v>
-      </c>
-    </row>
-    <row r="65" ht="12.0" customHeight="1">
+        <v>716.13545816733097</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>128</v>
@@ -2384,18 +2696,18 @@
         <v>129</v>
       </c>
       <c r="E65" s="6">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="F65" s="7">
         <v>96.7</v>
       </c>
       <c r="G65" s="8">
-        <v>714.581178903826</v>
-      </c>
-    </row>
-    <row r="66" ht="12.0" customHeight="1">
+        <v>714.58117890382596</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>130</v>
@@ -2407,18 +2719,18 @@
         <v>131</v>
       </c>
       <c r="E66" s="6">
-        <v>649.0</v>
+        <v>649</v>
       </c>
       <c r="F66" s="7">
         <v>90.9</v>
       </c>
       <c r="G66" s="8">
-        <v>713.971397139714</v>
-      </c>
-    </row>
-    <row r="67" ht="12.0" customHeight="1">
+        <v>713.97139713971399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>132</v>
@@ -2430,7 +2742,7 @@
         <v>133</v>
       </c>
       <c r="E67" s="6">
-        <v>1826.0</v>
+        <v>1826</v>
       </c>
       <c r="F67" s="7">
         <v>256.7</v>
@@ -2439,9 +2751,9 @@
         <v>711.336190105181</v>
       </c>
     </row>
-    <row r="68" ht="12.0" customHeight="1">
+    <row r="68" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>134</v>
@@ -2453,18 +2765,18 @@
         <v>135</v>
       </c>
       <c r="E68" s="6">
-        <v>1227.0</v>
+        <v>1227</v>
       </c>
       <c r="F68" s="7">
         <v>172.7</v>
       </c>
       <c r="G68" s="8">
-        <v>710.480602200347</v>
-      </c>
-    </row>
-    <row r="69" ht="12.0" customHeight="1">
+        <v>710.48060220034699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>136</v>
@@ -2476,18 +2788,18 @@
         <v>137</v>
       </c>
       <c r="E69" s="6">
-        <v>1013.0</v>
+        <v>1013</v>
       </c>
       <c r="F69" s="7">
         <v>143.4</v>
       </c>
       <c r="G69" s="8">
-        <v>706.415620641562</v>
-      </c>
-    </row>
-    <row r="70" ht="12.0" customHeight="1">
+        <v>706.41562064156199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>138</v>
@@ -2499,18 +2811,18 @@
         <v>139</v>
       </c>
       <c r="E70" s="6">
-        <v>1669.0</v>
+        <v>1669</v>
       </c>
       <c r="F70" s="7">
         <v>238.9</v>
       </c>
       <c r="G70" s="8">
-        <v>698.618668899121</v>
-      </c>
-    </row>
-    <row r="71" ht="12.0" customHeight="1">
+        <v>698.61866889912096</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>140</v>
@@ -2519,18 +2831,18 @@
         <v>43</v>
       </c>
       <c r="E71" s="6">
-        <v>5742.0</v>
+        <v>5742</v>
       </c>
       <c r="F71" s="7">
         <v>828.7</v>
       </c>
       <c r="G71" s="8">
-        <v>692.892482201038</v>
-      </c>
-    </row>
-    <row r="72" ht="12.0" customHeight="1">
+        <v>692.89248220103798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>141</v>
@@ -2542,18 +2854,18 @@
         <v>142</v>
       </c>
       <c r="E72" s="6">
-        <v>1119.0</v>
+        <v>1119</v>
       </c>
       <c r="F72" s="7">
-        <v>162.3</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="G72" s="8">
-        <v>689.463955637708</v>
-      </c>
-    </row>
-    <row r="73" ht="12.0" customHeight="1">
+        <v>689.46395563770795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>143</v>
@@ -2565,18 +2877,18 @@
         <v>144</v>
       </c>
       <c r="E73" s="6">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="F73" s="7">
         <v>139.9</v>
       </c>
       <c r="G73" s="8">
-        <v>679.056468906362</v>
-      </c>
-    </row>
-    <row r="74" ht="12.0" customHeight="1">
+        <v>679.05646890636206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>145</v>
@@ -2588,18 +2900,18 @@
         <v>146</v>
       </c>
       <c r="E74" s="6">
-        <v>1093.0</v>
+        <v>1093</v>
       </c>
       <c r="F74" s="7">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="G74" s="8">
-        <v>678.88198757764</v>
-      </c>
-    </row>
-    <row r="75" ht="12.0" customHeight="1">
+        <v>678.88198757763996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>147</v>
@@ -2611,18 +2923,18 @@
         <v>148</v>
       </c>
       <c r="E75" s="6">
-        <v>2457.0</v>
+        <v>2457</v>
       </c>
       <c r="F75" s="7">
         <v>362.7</v>
       </c>
       <c r="G75" s="8">
-        <v>677.41935483871</v>
-      </c>
-    </row>
-    <row r="76" ht="12.0" customHeight="1">
+        <v>677.41935483870998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>149</v>
@@ -2631,18 +2943,18 @@
         <v>43</v>
       </c>
       <c r="E76" s="6">
-        <v>3715.0</v>
+        <v>3715</v>
       </c>
       <c r="F76" s="7">
         <v>556.5</v>
       </c>
       <c r="G76" s="8">
-        <v>667.565139263252</v>
-      </c>
-    </row>
-    <row r="77" ht="12.0" customHeight="1">
+        <v>667.56513926325204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>150</v>
@@ -2651,18 +2963,18 @@
         <v>34</v>
       </c>
       <c r="E77" s="6">
-        <v>4229.0</v>
+        <v>4229</v>
       </c>
       <c r="F77" s="7">
-        <v>640.3</v>
+        <v>640.29999999999995</v>
       </c>
       <c r="G77" s="8">
-        <v>660.471653912229</v>
-      </c>
-    </row>
-    <row r="78" ht="12.0" customHeight="1">
+        <v>660.47165391222904</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>151</v>
@@ -2671,18 +2983,18 @@
         <v>60</v>
       </c>
       <c r="E78" s="6">
-        <v>4237.0</v>
+        <v>4237</v>
       </c>
       <c r="F78" s="7">
-        <v>644.7</v>
+        <v>644.70000000000005</v>
       </c>
       <c r="G78" s="8">
-        <v>657.204901504576</v>
-      </c>
-    </row>
-    <row r="79" ht="12.0" customHeight="1">
+        <v>657.20490150457601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>152</v>
@@ -2691,18 +3003,18 @@
         <v>29</v>
       </c>
       <c r="E79" s="6">
-        <v>7661.0</v>
+        <v>7661</v>
       </c>
       <c r="F79" s="7">
         <v>1165.8</v>
       </c>
       <c r="G79" s="8">
-        <v>657.145307943044</v>
-      </c>
-    </row>
-    <row r="80" ht="12.0" customHeight="1">
+        <v>657.14530794304403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>153</v>
@@ -2711,18 +3023,18 @@
         <v>43</v>
       </c>
       <c r="E80" s="6">
-        <v>3504.0</v>
+        <v>3504</v>
       </c>
       <c r="F80" s="7">
         <v>535.1</v>
       </c>
       <c r="G80" s="8">
-        <v>654.830872734068</v>
-      </c>
-    </row>
-    <row r="81" ht="12.0" customHeight="1">
+        <v>654.83087273406795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>154</v>
@@ -2731,18 +3043,18 @@
         <v>34</v>
       </c>
       <c r="E81" s="6">
-        <v>7147.0</v>
+        <v>7147</v>
       </c>
       <c r="F81" s="7">
         <v>1095.5</v>
       </c>
       <c r="G81" s="8">
-        <v>652.396166134185</v>
-      </c>
-    </row>
-    <row r="82" ht="12.0" customHeight="1">
+        <v>652.39616613418502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>155</v>
@@ -2754,18 +3066,18 @@
         <v>156</v>
       </c>
       <c r="E82" s="6">
-        <v>1110.0</v>
+        <v>1110</v>
       </c>
       <c r="F82" s="7">
         <v>171.2</v>
       </c>
       <c r="G82" s="8">
-        <v>648.364485981308</v>
-      </c>
-    </row>
-    <row r="83" ht="12.0" customHeight="1">
+        <v>648.36448598130801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>157</v>
@@ -2777,18 +3089,18 @@
         <v>158</v>
       </c>
       <c r="E83" s="6">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="F83" s="7">
         <v>50.5</v>
       </c>
       <c r="G83" s="8">
-        <v>647.524752475248</v>
-      </c>
-    </row>
-    <row r="84" ht="12.0" customHeight="1">
+        <v>647.52475247524796</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>159</v>
@@ -2800,18 +3112,18 @@
         <v>160</v>
       </c>
       <c r="E84" s="6">
-        <v>1517.0</v>
+        <v>1517</v>
       </c>
       <c r="F84" s="7">
         <v>234.4</v>
       </c>
       <c r="G84" s="8">
-        <v>647.184300341297</v>
-      </c>
-    </row>
-    <row r="85" ht="12.0" customHeight="1">
+        <v>647.18430034129699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>161</v>
@@ -2823,18 +3135,18 @@
         <v>162</v>
       </c>
       <c r="E85" s="6">
-        <v>1381.0</v>
+        <v>1381</v>
       </c>
       <c r="F85" s="7">
         <v>213.8</v>
       </c>
       <c r="G85" s="8">
-        <v>645.930776426567</v>
-      </c>
-    </row>
-    <row r="86" ht="12.0" customHeight="1">
+        <v>645.93077642656704</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>163</v>
@@ -2846,18 +3158,18 @@
         <v>164</v>
       </c>
       <c r="E86" s="6">
-        <v>875.0</v>
+        <v>875</v>
       </c>
       <c r="F86" s="7">
         <v>137.5</v>
       </c>
       <c r="G86" s="8">
-        <v>636.363636363636</v>
-      </c>
-    </row>
-    <row r="87" ht="12.0" customHeight="1">
+        <v>636.36363636363603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>165</v>
@@ -2869,18 +3181,18 @@
         <v>166</v>
       </c>
       <c r="E87" s="6">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="F87" s="7">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="G87" s="8">
-        <v>635.443037974684</v>
-      </c>
-    </row>
-    <row r="88" ht="12.0" customHeight="1">
+        <v>635.44303797468399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>167</v>
@@ -2892,7 +3204,7 @@
         <v>168</v>
       </c>
       <c r="E88" s="6">
-        <v>508.0</v>
+        <v>508</v>
       </c>
       <c r="F88" s="7">
         <v>80.2</v>
@@ -2901,9 +3213,9 @@
         <v>633.416458852868</v>
       </c>
     </row>
-    <row r="89" ht="12.0" customHeight="1">
+    <row r="89" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>169</v>
@@ -2912,18 +3224,18 @@
         <v>34</v>
       </c>
       <c r="E89" s="6">
-        <v>3129.0</v>
+        <v>3129</v>
       </c>
       <c r="F89" s="7">
         <v>494.7</v>
       </c>
       <c r="G89" s="8">
-        <v>632.504548211037</v>
-      </c>
-    </row>
-    <row r="90" ht="12.0" customHeight="1">
+        <v>632.50454821103699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>170</v>
@@ -2932,18 +3244,18 @@
         <v>46</v>
       </c>
       <c r="E90" s="6">
-        <v>8116.0</v>
+        <v>8116</v>
       </c>
       <c r="F90" s="7">
-        <v>1289.4</v>
+        <v>1289.4000000000001</v>
       </c>
       <c r="G90" s="8">
         <v>629.440049635489</v>
       </c>
     </row>
-    <row r="91" ht="12.0" customHeight="1">
+    <row r="91" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>171</v>
@@ -2952,18 +3264,18 @@
         <v>60</v>
       </c>
       <c r="E91" s="6">
-        <v>4289.0</v>
+        <v>4289</v>
       </c>
       <c r="F91" s="7">
         <v>683.8</v>
       </c>
       <c r="G91" s="8">
-        <v>627.230184264405</v>
-      </c>
-    </row>
-    <row r="92" ht="12.0" customHeight="1">
+        <v>627.23018426440501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>172</v>
@@ -2975,18 +3287,18 @@
         <v>173</v>
       </c>
       <c r="E92" s="6">
-        <v>875.0</v>
+        <v>875</v>
       </c>
       <c r="F92" s="7">
-        <v>141.2</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="G92" s="8">
-        <v>619.688385269122</v>
-      </c>
-    </row>
-    <row r="93" ht="12.0" customHeight="1">
+        <v>619.68838526912202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>174</v>
@@ -2998,7 +3310,7 @@
         <v>175</v>
       </c>
       <c r="E93" s="6">
-        <v>1855.0</v>
+        <v>1855</v>
       </c>
       <c r="F93" s="7">
         <v>300.8</v>
@@ -3007,9 +3319,9 @@
         <v>616.688829787234</v>
       </c>
     </row>
-    <row r="94" ht="12.0" customHeight="1">
+    <row r="94" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>176</v>
@@ -3021,18 +3333,18 @@
         <v>177</v>
       </c>
       <c r="E94" s="6">
-        <v>827.0</v>
+        <v>827</v>
       </c>
       <c r="F94" s="7">
-        <v>134.2</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="G94" s="8">
-        <v>616.244411326378</v>
-      </c>
-    </row>
-    <row r="95" ht="12.0" customHeight="1">
+        <v>616.24441132637799</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>178</v>
@@ -3044,18 +3356,18 @@
         <v>179</v>
       </c>
       <c r="E95" s="6">
-        <v>1274.0</v>
+        <v>1274</v>
       </c>
       <c r="F95" s="7">
         <v>209.1</v>
       </c>
       <c r="G95" s="8">
-        <v>609.277857484457</v>
-      </c>
-    </row>
-    <row r="96" ht="12.0" customHeight="1">
+        <v>609.27785748445694</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>180</v>
@@ -3064,18 +3376,18 @@
         <v>24</v>
       </c>
       <c r="E96" s="6">
-        <v>6730.0</v>
+        <v>6730</v>
       </c>
       <c r="F96" s="7">
         <v>1106.3</v>
       </c>
       <c r="G96" s="8">
-        <v>608.334086594956</v>
-      </c>
-    </row>
-    <row r="97" ht="12.0" customHeight="1">
+        <v>608.33408659495603</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>181</v>
@@ -3087,18 +3399,18 @@
         <v>182</v>
       </c>
       <c r="E97" s="6">
-        <v>1527.0</v>
+        <v>1527</v>
       </c>
       <c r="F97" s="7">
         <v>252.9</v>
       </c>
       <c r="G97" s="8">
-        <v>603.795966785291</v>
-      </c>
-    </row>
-    <row r="98" ht="12.0" customHeight="1">
+        <v>603.79596678529094</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>183</v>
@@ -3110,18 +3422,18 @@
         <v>184</v>
       </c>
       <c r="E98" s="6">
-        <v>1581.0</v>
+        <v>1581</v>
       </c>
       <c r="F98" s="7">
         <v>262.2</v>
       </c>
       <c r="G98" s="8">
-        <v>602.974828375286</v>
-      </c>
-    </row>
-    <row r="99" ht="12.0" customHeight="1">
+        <v>602.97482837528605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>185</v>
@@ -3133,18 +3445,18 @@
         <v>186</v>
       </c>
       <c r="E99" s="6">
-        <v>3534.0</v>
+        <v>3534</v>
       </c>
       <c r="F99" s="7">
         <v>588.5</v>
       </c>
       <c r="G99" s="8">
-        <v>600.509770603229</v>
-      </c>
-    </row>
-    <row r="100" ht="12.0" customHeight="1">
+        <v>600.50977060322896</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>187</v>
@@ -3156,18 +3468,18 @@
         <v>188</v>
       </c>
       <c r="E100" s="6">
-        <v>1464.0</v>
+        <v>1464</v>
       </c>
       <c r="F100" s="7">
         <v>244.1</v>
       </c>
       <c r="G100" s="8">
-        <v>599.75419909873</v>
-      </c>
-    </row>
-    <row r="101" ht="12.0" customHeight="1">
+        <v>599.75419909873006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>189</v>
@@ -3176,18 +3488,18 @@
         <v>34</v>
       </c>
       <c r="E101" s="6">
-        <v>3059.0</v>
+        <v>3059</v>
       </c>
       <c r="F101" s="7">
         <v>512.1</v>
       </c>
       <c r="G101" s="8">
-        <v>597.34426869752</v>
-      </c>
-    </row>
-    <row r="102" ht="12.0" customHeight="1">
+        <v>597.34426869751996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>190</v>
@@ -3199,18 +3511,18 @@
         <v>191</v>
       </c>
       <c r="E102" s="6">
-        <v>1182.0</v>
+        <v>1182</v>
       </c>
       <c r="F102" s="7">
         <v>198.8</v>
       </c>
       <c r="G102" s="8">
-        <v>594.567404426559</v>
-      </c>
-    </row>
-    <row r="103" ht="12.0" customHeight="1">
+        <v>594.56740442655905</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>192</v>
@@ -3222,18 +3534,18 @@
         <v>193</v>
       </c>
       <c r="E103" s="6">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="F103" s="7">
         <v>38.4</v>
       </c>
       <c r="G103" s="8">
-        <v>591.145833333333</v>
-      </c>
-    </row>
-    <row r="104" ht="12.0" customHeight="1">
+        <v>591.14583333333303</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>194</v>
@@ -3242,18 +3554,18 @@
         <v>34</v>
       </c>
       <c r="E104" s="6">
-        <v>6579.0</v>
+        <v>6579</v>
       </c>
       <c r="F104" s="7">
-        <v>1113.1</v>
+        <v>1113.0999999999999</v>
       </c>
       <c r="G104" s="8">
-        <v>591.052016889767</v>
-      </c>
-    </row>
-    <row r="105" ht="12.0" customHeight="1">
+        <v>591.05201688976695</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>195</v>
@@ -3265,18 +3577,18 @@
         <v>196</v>
       </c>
       <c r="E105" s="6">
-        <v>824.0</v>
+        <v>824</v>
       </c>
       <c r="F105" s="7">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="G105" s="8">
-        <v>588.571428571428</v>
-      </c>
-    </row>
-    <row r="106" ht="12.0" customHeight="1">
+        <v>588.57142857142799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>197</v>
@@ -3288,18 +3600,18 @@
         <v>198</v>
       </c>
       <c r="E106" s="6">
-        <v>993.0</v>
+        <v>993</v>
       </c>
       <c r="F106" s="7">
         <v>169.9</v>
       </c>
       <c r="G106" s="8">
-        <v>584.461447910536</v>
-      </c>
-    </row>
-    <row r="107" ht="12.0" customHeight="1">
+        <v>584.46144791053598</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>199</v>
@@ -3311,18 +3623,18 @@
         <v>200</v>
       </c>
       <c r="E107" s="6">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="F107" s="7">
         <v>191.1</v>
       </c>
       <c r="G107" s="8">
-        <v>575.614861329147</v>
-      </c>
-    </row>
-    <row r="108" ht="12.0" customHeight="1">
+        <v>575.61486132914695</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>201</v>
@@ -3331,18 +3643,18 @@
         <v>73</v>
       </c>
       <c r="E108" s="6">
-        <v>3440.0</v>
+        <v>3440</v>
       </c>
       <c r="F108" s="7">
-        <v>607.0</v>
+        <v>607</v>
       </c>
       <c r="G108" s="8">
-        <v>566.7215815486</v>
-      </c>
-    </row>
-    <row r="109" ht="12.0" customHeight="1">
+        <v>566.72158154860006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>202</v>
@@ -3351,18 +3663,18 @@
         <v>34</v>
       </c>
       <c r="E109" s="6">
-        <v>7916.0</v>
+        <v>7916</v>
       </c>
       <c r="F109" s="7">
-        <v>1399.0</v>
+        <v>1399</v>
       </c>
       <c r="G109" s="8">
-        <v>565.832737669764</v>
-      </c>
-    </row>
-    <row r="110" ht="12.0" customHeight="1">
+        <v>565.83273766976401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>203</v>
@@ -3374,18 +3686,18 @@
         <v>204</v>
       </c>
       <c r="E110" s="6">
-        <v>786.0</v>
+        <v>786</v>
       </c>
       <c r="F110" s="7">
         <v>140.4</v>
       </c>
       <c r="G110" s="8">
-        <v>559.82905982906</v>
-      </c>
-    </row>
-    <row r="111" ht="12.0" customHeight="1">
+        <v>559.82905982906004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>205</v>
@@ -3397,18 +3709,18 @@
         <v>206</v>
       </c>
       <c r="E111" s="6">
-        <v>906.0</v>
+        <v>906</v>
       </c>
       <c r="F111" s="7">
         <v>161.9</v>
       </c>
       <c r="G111" s="8">
-        <v>559.604694255713</v>
-      </c>
-    </row>
-    <row r="112" ht="12.0" customHeight="1">
+        <v>559.60469425571296</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>207</v>
@@ -3420,7 +3732,7 @@
         <v>208</v>
       </c>
       <c r="E112" s="6">
-        <v>659.0</v>
+        <v>659</v>
       </c>
       <c r="F112" s="7">
         <v>118.7</v>
@@ -3429,9 +3741,9 @@
         <v>555.181128896377</v>
       </c>
     </row>
-    <row r="113" ht="12.0" customHeight="1">
+    <row r="113" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>209</v>
@@ -3440,18 +3752,18 @@
         <v>29</v>
       </c>
       <c r="E113" s="6">
-        <v>7410.0</v>
+        <v>7410</v>
       </c>
       <c r="F113" s="7">
         <v>1350.6</v>
       </c>
       <c r="G113" s="8">
-        <v>548.645046645935</v>
-      </c>
-    </row>
-    <row r="114" ht="12.0" customHeight="1">
+        <v>548.64504664593505</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>210</v>
@@ -3463,18 +3775,18 @@
         <v>211</v>
       </c>
       <c r="E114" s="6">
-        <v>1090.0</v>
+        <v>1090</v>
       </c>
       <c r="F114" s="7">
         <v>198.8</v>
       </c>
       <c r="G114" s="8">
-        <v>548.289738430584</v>
-      </c>
-    </row>
-    <row r="115" ht="12.0" customHeight="1">
+        <v>548.28973843058395</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>212</v>
@@ -3486,18 +3798,18 @@
         <v>213</v>
       </c>
       <c r="E115" s="6">
-        <v>1297.0</v>
+        <v>1297</v>
       </c>
       <c r="F115" s="7">
         <v>236.7</v>
       </c>
       <c r="G115" s="8">
-        <v>547.950992817913</v>
-      </c>
-    </row>
-    <row r="116" ht="12.0" customHeight="1">
+        <v>547.95099281791295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>214</v>
@@ -3509,18 +3821,18 @@
         <v>215</v>
       </c>
       <c r="E116" s="6">
-        <v>1840.0</v>
+        <v>1840</v>
       </c>
       <c r="F116" s="7">
         <v>336.2</v>
       </c>
       <c r="G116" s="8">
-        <v>547.293277810827</v>
-      </c>
-    </row>
-    <row r="117" ht="12.0" customHeight="1">
+        <v>547.29327781082702</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>216</v>
@@ -3532,7 +3844,7 @@
         <v>217</v>
       </c>
       <c r="E117" s="6">
-        <v>894.0</v>
+        <v>894</v>
       </c>
       <c r="F117" s="7">
         <v>164.9</v>
@@ -3541,9 +3853,9 @@
         <v>542.14675560946</v>
       </c>
     </row>
-    <row r="118" ht="12.0" customHeight="1">
+    <row r="118" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>218</v>
@@ -3555,18 +3867,18 @@
         <v>219</v>
       </c>
       <c r="E118" s="6">
-        <v>927.0</v>
+        <v>927</v>
       </c>
       <c r="F118" s="7">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="G118" s="8">
-        <v>542.105263157895</v>
-      </c>
-    </row>
-    <row r="119" ht="12.0" customHeight="1">
+        <v>542.10526315789502</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>220</v>
@@ -3578,18 +3890,18 @@
         <v>221</v>
       </c>
       <c r="E119" s="6">
-        <v>1383.0</v>
+        <v>1383</v>
       </c>
       <c r="F119" s="7">
-        <v>262.4</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="G119" s="8">
-        <v>527.057926829268</v>
-      </c>
-    </row>
-    <row r="120" ht="12.0" customHeight="1">
+        <v>527.05792682926801</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>222</v>
@@ -3601,18 +3913,18 @@
         <v>223</v>
       </c>
       <c r="E120" s="6">
-        <v>757.0</v>
+        <v>757</v>
       </c>
       <c r="F120" s="7">
-        <v>143.8</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="G120" s="8">
-        <v>526.425591098748</v>
-      </c>
-    </row>
-    <row r="121" ht="12.0" customHeight="1">
+        <v>526.42559109874799</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>224</v>
@@ -3624,7 +3936,7 @@
         <v>225</v>
       </c>
       <c r="E121" s="6">
-        <v>2510.0</v>
+        <v>2510</v>
       </c>
       <c r="F121" s="7">
         <v>477.7</v>
@@ -3633,9 +3945,9 @@
         <v>525.434373037471</v>
       </c>
     </row>
-    <row r="122" ht="12.0" customHeight="1">
+    <row r="122" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>226</v>
@@ -3647,18 +3959,18 @@
         <v>227</v>
       </c>
       <c r="E122" s="6">
-        <v>798.0</v>
+        <v>798</v>
       </c>
       <c r="F122" s="7">
         <v>157.1</v>
       </c>
       <c r="G122" s="8">
-        <v>507.956715467855</v>
-      </c>
-    </row>
-    <row r="123" ht="12.0" customHeight="1">
+        <v>507.95671546785502</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>228</v>
@@ -3670,18 +3982,18 @@
         <v>229</v>
       </c>
       <c r="E123" s="6">
-        <v>1654.0</v>
+        <v>1654</v>
       </c>
       <c r="F123" s="7">
         <v>326.3</v>
       </c>
       <c r="G123" s="8">
-        <v>506.895494943304</v>
-      </c>
-    </row>
-    <row r="124" ht="12.0" customHeight="1">
+        <v>506.89549494330402</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>230</v>
@@ -3690,18 +4002,18 @@
         <v>34</v>
       </c>
       <c r="E124" s="6">
-        <v>7152.0</v>
+        <v>7152</v>
       </c>
       <c r="F124" s="7">
         <v>1411.1</v>
       </c>
       <c r="G124" s="8">
-        <v>506.838636524697</v>
-      </c>
-    </row>
-    <row r="125" ht="12.0" customHeight="1">
+        <v>506.83863652469699</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>231</v>
@@ -3713,18 +4025,18 @@
         <v>232</v>
       </c>
       <c r="E125" s="6">
-        <v>1564.0</v>
+        <v>1564</v>
       </c>
       <c r="F125" s="7">
-        <v>310.9</v>
+        <v>310.89999999999998</v>
       </c>
       <c r="G125" s="8">
-        <v>503.055644901898</v>
-      </c>
-    </row>
-    <row r="126" ht="12.0" customHeight="1">
+        <v>503.05564490189801</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>233</v>
@@ -3736,18 +4048,18 @@
         <v>234</v>
       </c>
       <c r="E126" s="6">
-        <v>1683.0</v>
+        <v>1683</v>
       </c>
       <c r="F126" s="7">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="G126" s="8">
         <v>499.406528189911</v>
       </c>
     </row>
-    <row r="127" ht="12.0" customHeight="1">
+    <row r="127" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>235</v>
@@ -3759,18 +4071,18 @@
         <v>236</v>
       </c>
       <c r="E127" s="6">
-        <v>1515.0</v>
+        <v>1515</v>
       </c>
       <c r="F127" s="7">
         <v>304.7</v>
       </c>
       <c r="G127" s="8">
-        <v>497.21037085658</v>
-      </c>
-    </row>
-    <row r="128" ht="12.0" customHeight="1">
+        <v>497.21037085658003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>237</v>
@@ -3782,18 +4094,18 @@
         <v>238</v>
       </c>
       <c r="E128" s="6">
-        <v>1270.0</v>
+        <v>1270</v>
       </c>
       <c r="F128" s="7">
         <v>256.3</v>
       </c>
       <c r="G128" s="8">
-        <v>495.513070620367</v>
-      </c>
-    </row>
-    <row r="129" ht="12.0" customHeight="1">
+        <v>495.51307062036699</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>239</v>
@@ -3805,18 +4117,18 @@
         <v>240</v>
       </c>
       <c r="E129" s="6">
-        <v>667.0</v>
+        <v>667</v>
       </c>
       <c r="F129" s="7">
         <v>140.5</v>
       </c>
       <c r="G129" s="8">
-        <v>474.733096085409</v>
-      </c>
-    </row>
-    <row r="130" ht="12.0" customHeight="1">
+        <v>474.73309608540899</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>241</v>
@@ -3828,18 +4140,18 @@
         <v>242</v>
       </c>
       <c r="E130" s="6">
-        <v>777.0</v>
+        <v>777</v>
       </c>
       <c r="F130" s="7">
         <v>164.2</v>
       </c>
       <c r="G130" s="8">
-        <v>473.20341047503</v>
-      </c>
-    </row>
-    <row r="131" ht="12.0" customHeight="1">
+        <v>473.20341047503001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>243</v>
@@ -3851,18 +4163,18 @@
         <v>244</v>
       </c>
       <c r="E131" s="6">
-        <v>492.0</v>
+        <v>492</v>
       </c>
       <c r="F131" s="7">
         <v>104.7</v>
       </c>
       <c r="G131" s="8">
-        <v>469.914040114613</v>
-      </c>
-    </row>
-    <row r="132" ht="12.0" customHeight="1">
+        <v>469.91404011461299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>245</v>
@@ -3874,18 +4186,18 @@
         <v>246</v>
       </c>
       <c r="E132" s="6">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="F132" s="7">
         <v>89.2</v>
       </c>
       <c r="G132" s="8">
-        <v>468.609865470852</v>
-      </c>
-    </row>
-    <row r="133" ht="12.0" customHeight="1">
+        <v>468.60986547085201</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>247</v>
@@ -3897,7 +4209,7 @@
         <v>248</v>
       </c>
       <c r="E133" s="6">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="F133" s="7">
         <v>194.3</v>
@@ -3906,9 +4218,9 @@
         <v>463.201235203294</v>
       </c>
     </row>
-    <row r="134" ht="12.0" customHeight="1">
+    <row r="134" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>249</v>
@@ -3920,18 +4232,18 @@
         <v>250</v>
       </c>
       <c r="E134" s="6">
-        <v>701.0</v>
+        <v>701</v>
       </c>
       <c r="F134" s="7">
-        <v>151.8</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="G134" s="8">
-        <v>461.791831357049</v>
-      </c>
-    </row>
-    <row r="135" ht="12.0" customHeight="1">
+        <v>461.79183135704898</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>251</v>
@@ -3943,18 +4255,18 @@
         <v>252</v>
       </c>
       <c r="E135" s="6">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="F135" s="7">
         <v>90.9</v>
       </c>
       <c r="G135" s="8">
-        <v>440.04400440044</v>
-      </c>
-    </row>
-    <row r="136" ht="12.0" customHeight="1">
+        <v>440.04400440043997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>253</v>
@@ -3966,18 +4278,18 @@
         <v>254</v>
       </c>
       <c r="E136" s="6">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="F136" s="7">
         <v>236.7</v>
       </c>
       <c r="G136" s="8">
-        <v>399.239543726236</v>
-      </c>
-    </row>
-    <row r="137" ht="12.0" customHeight="1">
+        <v>399.23954372623598</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>255</v>
@@ -3989,18 +4301,18 @@
         <v>256</v>
       </c>
       <c r="E137" s="6">
-        <v>1721.0</v>
+        <v>1721</v>
       </c>
       <c r="F137" s="7">
         <v>433.1</v>
       </c>
       <c r="G137" s="8">
-        <v>397.367813438005</v>
-      </c>
-    </row>
-    <row r="138" ht="12.0" customHeight="1">
+        <v>397.36781343800499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>257</v>
@@ -4012,18 +4324,18 @@
         <v>258</v>
       </c>
       <c r="E138" s="6">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="F138" s="7">
         <v>115.1</v>
       </c>
       <c r="G138" s="8">
-        <v>395.308427454388</v>
-      </c>
-    </row>
-    <row r="139" ht="12.0" customHeight="1">
+        <v>395.30842745438798</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>259</v>
@@ -4035,18 +4347,18 @@
         <v>260</v>
       </c>
       <c r="E139" s="6">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="F139" s="7">
         <v>254.8</v>
       </c>
       <c r="G139" s="8">
-        <v>393.642072213501</v>
-      </c>
-    </row>
-    <row r="140" ht="12.0" customHeight="1">
+        <v>393.64207221350102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>261</v>
@@ -4058,18 +4370,18 @@
         <v>262</v>
       </c>
       <c r="E140" s="6">
-        <v>592.0</v>
+        <v>592</v>
       </c>
       <c r="F140" s="7">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="G140" s="8">
-        <v>376.590330788804</v>
-      </c>
-    </row>
-    <row r="141" ht="12.0" customHeight="1">
+        <v>376.59033078880401</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>263</v>
@@ -4081,7 +4393,7 @@
         <v>264</v>
       </c>
       <c r="E141" s="6">
-        <v>452.0</v>
+        <v>452</v>
       </c>
       <c r="F141" s="7">
         <v>128.4</v>
@@ -4090,9 +4402,9 @@
         <v>352.02492211838</v>
       </c>
     </row>
-    <row r="142" ht="12.0" customHeight="1">
+    <row r="142" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>265</v>
@@ -4104,18 +4416,18 @@
         <v>266</v>
       </c>
       <c r="E142" s="6">
-        <v>634.0</v>
+        <v>634</v>
       </c>
       <c r="F142" s="7">
         <v>203.5</v>
       </c>
       <c r="G142" s="8">
-        <v>311.547911547912</v>
-      </c>
-    </row>
-    <row r="143" ht="12.0" customHeight="1">
+        <v>311.54791154791201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>267</v>
@@ -4124,18 +4436,18 @@
         <v>268</v>
       </c>
       <c r="E143" s="6">
-        <v>24122.0</v>
+        <v>24122</v>
       </c>
       <c r="F143" s="7">
         <v>7753.6</v>
       </c>
       <c r="G143" s="8">
-        <v>311.107098638052</v>
-      </c>
-    </row>
-    <row r="144" ht="12.0" customHeight="1">
+        <v>311.10709863805198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>269</v>
@@ -4144,50 +4456,52 @@
         <v>43</v>
       </c>
       <c r="E144" s="6">
-        <v>14362.0</v>
+        <v>14362</v>
       </c>
       <c r="F144" s="7">
         <v>5431.1</v>
       </c>
       <c r="G144" s="8">
-        <v>264.43998453352</v>
+        <v>264.43998453351998</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="10.13"/>
+    <col min="1" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="10.13"/>
+    <col min="1" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>